--- a/data_year/zb/科技/中国科协系统科技活动情况/中国科协系统科普基础设施建设.xlsx
+++ b/data_year/zb/科技/中国科协系统科技活动情况/中国科协系统科普基础设施建设.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT5"/>
+  <dimension ref="A1:AT3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,35 +663,35 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60931</v>
+        <v>80592</v>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="D2" t="n">
-        <v>2062</v>
+        <v>1029</v>
       </c>
       <c r="E2" t="n">
-        <v>901002</v>
+        <v>4555695</v>
       </c>
       <c r="F2" t="n">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="G2" t="n">
-        <v>12906</v>
+        <v>20247</v>
       </c>
       <c r="H2" t="n">
-        <v>24868</v>
+        <v>29973</v>
       </c>
       <c r="I2" t="n">
-        <v>179444</v>
+        <v>232096</v>
       </c>
       <c r="J2" t="n">
-        <v>1814</v>
+        <v>2332</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -701,10 +701,10 @@
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="S2" t="n">
-        <v>41807</v>
+        <v>57500</v>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
@@ -714,10 +714,10 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
-        <v>549</v>
+        <v>709</v>
       </c>
       <c r="AB2" t="n">
-        <v>47337</v>
+        <v>62804</v>
       </c>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
@@ -727,71 +727,71 @@
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="n">
-        <v>355</v>
+        <v>450</v>
       </c>
       <c r="AK2" t="n">
-        <v>5530</v>
+        <v>5304</v>
       </c>
       <c r="AL2" t="n">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="AM2" t="n">
-        <v>2062</v>
+        <v>1029</v>
       </c>
       <c r="AN2" t="n">
-        <v>901002</v>
+        <v>4555695</v>
       </c>
       <c r="AO2" t="n">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="AP2" t="n">
-        <v>12906</v>
+        <v>20247</v>
       </c>
       <c r="AQ2" t="n">
-        <v>24868</v>
+        <v>29973</v>
       </c>
       <c r="AR2" t="n">
-        <v>179444</v>
+        <v>232096</v>
       </c>
       <c r="AS2" t="n">
-        <v>1265</v>
+        <v>1623</v>
       </c>
       <c r="AT2" t="n">
-        <v>13594</v>
+        <v>17788</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76757</v>
+        <v>120779</v>
       </c>
       <c r="C3" t="n">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>983</v>
+        <v>992</v>
       </c>
       <c r="E3" t="n">
-        <v>2068761</v>
+        <v>5243516</v>
       </c>
       <c r="F3" t="n">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="G3" t="n">
-        <v>19576</v>
+        <v>26273</v>
       </c>
       <c r="H3" t="n">
-        <v>28121</v>
+        <v>33928</v>
       </c>
       <c r="I3" t="n">
-        <v>215374</v>
+        <v>271089</v>
       </c>
       <c r="J3" t="n">
-        <v>2179</v>
+        <v>2794</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -801,10 +801,10 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>234</v>
+        <v>345</v>
       </c>
       <c r="S3" t="n">
-        <v>53354</v>
+        <v>66099</v>
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
@@ -814,10 +814,10 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
-        <v>686</v>
+        <v>881</v>
       </c>
       <c r="AB3" t="n">
-        <v>59343</v>
+        <v>82466</v>
       </c>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
@@ -827,236 +827,36 @@
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="n">
-        <v>452</v>
+        <v>536</v>
       </c>
       <c r="AK3" t="n">
-        <v>5989</v>
+        <v>16367</v>
       </c>
       <c r="AL3" t="n">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>983</v>
+        <v>992</v>
       </c>
       <c r="AN3" t="n">
-        <v>2068761</v>
+        <v>5243516</v>
       </c>
       <c r="AO3" t="n">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="AP3" t="n">
-        <v>19576</v>
+        <v>26273</v>
       </c>
       <c r="AQ3" t="n">
-        <v>28121</v>
+        <v>33928</v>
       </c>
       <c r="AR3" t="n">
-        <v>215374</v>
+        <v>271089</v>
       </c>
       <c r="AS3" t="n">
-        <v>1493</v>
+        <v>1913</v>
       </c>
       <c r="AT3" t="n">
-        <v>17414</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>80592</v>
-      </c>
-      <c r="C4" t="n">
-        <v>91</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1029</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4555695</v>
-      </c>
-      <c r="F4" t="n">
-        <v>222</v>
-      </c>
-      <c r="G4" t="n">
-        <v>20247</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29973</v>
-      </c>
-      <c r="I4" t="n">
-        <v>232096</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2332</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
-        <v>259</v>
-      </c>
-      <c r="S4" t="n">
-        <v>57500</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="n">
-        <v>709</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>62804</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="n">
-        <v>450</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>5304</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>91</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1029</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4555695</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>222</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>20247</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>29973</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>232096</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>1623</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>17788</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>120779</v>
-      </c>
-      <c r="C5" t="n">
-        <v>51</v>
-      </c>
-      <c r="D5" t="n">
-        <v>992</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5243516</v>
-      </c>
-      <c r="F5" t="n">
-        <v>258</v>
-      </c>
-      <c r="G5" t="n">
-        <v>26273</v>
-      </c>
-      <c r="H5" t="n">
-        <v>33928</v>
-      </c>
-      <c r="I5" t="n">
-        <v>271089</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2794</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
-        <v>345</v>
-      </c>
-      <c r="S5" t="n">
-        <v>66099</v>
-      </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="n">
-        <v>881</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>82466</v>
-      </c>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="n">
-        <v>536</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>16367</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>992</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5243516</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>258</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26273</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>33928</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>271089</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>1913</v>
-      </c>
-      <c r="AT5" t="n">
         <v>38313</v>
       </c>
     </row>
